--- a/nmadb/479911.xlsx
+++ b/nmadb/479911.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -80,15 +80,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Treatments</t>
   </si>
   <si>
     <t>Study id</t>
-  </si>
-  <si>
-    <t>SE</t>
   </si>
   <si>
     <t>id</t>
@@ -185,22 +182,6 @@
     <t>Chen 2004</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">HR </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(t1vs. T2)</t>
-    </r>
-  </si>
-  <si>
     <t>Fosella 2003</t>
   </si>
   <si>
@@ -211,13 +192,22 @@
   </si>
   <si>
     <t>Tan 2009</t>
+  </si>
+  <si>
+    <t>effect=HR(t1 vs t2)</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,14 +267,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -444,7 +426,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -495,9 +477,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -505,26 +487,53 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -541,7 +550,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -615,7 +624,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -650,7 +658,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -826,15 +833,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="10" customWidth="1"/>
@@ -852,40 +859,40 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -893,25 +900,29 @@
         <v>2002</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="11">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10">
+        <v>15</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="35">
+        <v>1</v>
+      </c>
+      <c r="F2" s="35">
         <v>2</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="36">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="36">
         <v>0.91</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="36">
         <v>1.44</v>
+      </c>
+      <c r="J2" s="37">
+        <f>(I2-H2)/(1.96^2)</f>
+        <v>0.13796334860474802</v>
       </c>
       <c r="N2" s="18" t="s">
         <v>0</v>
@@ -920,28 +931,32 @@
         <v>1</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" s="17"/>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="35">
         <v>3</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="35">
         <v>2</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="36">
         <v>0.96</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="36">
         <v>0.77</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="36">
         <v>1.21</v>
+      </c>
+      <c r="J3" s="37">
+        <f>(I3-H3)/(1.96^2)</f>
+        <v>0.11453561016243231</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="21"/>
@@ -949,28 +964,32 @@
         <v>2</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="17"/>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="30">
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="38">
         <v>3</v>
       </c>
-      <c r="F4" s="30">
-        <v>1</v>
-      </c>
-      <c r="G4" s="29">
+      <c r="F4" s="38">
+        <v>1</v>
+      </c>
+      <c r="G4" s="39">
         <v>0.84</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="39">
         <v>0.54</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="39">
         <v>1.3</v>
+      </c>
+      <c r="J4" s="37">
+        <f t="shared" ref="J4:J25" si="0">(I4-H4)/(1.96^2)</f>
+        <v>0.19783423573511039</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="21"/>
@@ -978,7 +997,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1">
@@ -986,32 +1005,36 @@
         <v>2003</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="11">
+        <v>16</v>
+      </c>
+      <c r="D5" s="34">
         <v>2</v>
       </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="E5" s="35">
+        <v>1</v>
+      </c>
+      <c r="F5" s="35">
         <v>2</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="36">
         <v>0.98</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="36">
         <v>0.73</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="36">
         <v>1.31</v>
+      </c>
+      <c r="J5" s="37">
+        <f t="shared" si="0"/>
+        <v>0.15097875885047901</v>
       </c>
       <c r="N5" s="25"/>
       <c r="O5" s="26">
         <v>4</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1019,25 +1042,29 @@
         <v>2003</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="11">
+        <v>17</v>
+      </c>
+      <c r="D6" s="34">
         <v>3</v>
       </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="E6" s="35">
+        <v>1</v>
+      </c>
+      <c r="F6" s="35">
         <v>2</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="36">
         <v>1.17</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="36">
         <v>0.93</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="36">
         <v>1.48</v>
+      </c>
+      <c r="J6" s="37">
+        <f t="shared" si="0"/>
+        <v>0.1431695127030404</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1045,25 +1072,29 @@
         <v>2005</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="11">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
         <v>4</v>
       </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="E7" s="35">
+        <v>1</v>
+      </c>
+      <c r="F7" s="35">
         <v>2</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="36">
         <v>1.04</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="36">
         <v>0.8</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="36">
         <v>1.35</v>
+      </c>
+      <c r="J7" s="37">
+        <f t="shared" si="0"/>
+        <v>0.14316951270304043</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1071,25 +1102,29 @@
         <v>2006</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="11">
+        <v>19</v>
+      </c>
+      <c r="D8" s="34">
         <v>5</v>
       </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="E8" s="35">
+        <v>1</v>
+      </c>
+      <c r="F8" s="35">
         <v>2</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="36">
         <v>1.05</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="36">
         <v>0.67</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="36">
         <v>1.66</v>
+      </c>
+      <c r="J8" s="37">
+        <f t="shared" si="0"/>
+        <v>0.2577051228654727</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1099,25 +1134,32 @@
         <v>2007</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="11">
+        <v>20</v>
+      </c>
+      <c r="D9" s="34">
         <v>6</v>
       </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="E9" s="35">
+        <v>1</v>
+      </c>
+      <c r="F9" s="35">
         <v>2</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="36">
         <v>1.02</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="36">
         <v>0.82</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="36">
         <v>1.26</v>
+      </c>
+      <c r="J9" s="37">
+        <f t="shared" si="0"/>
+        <v>0.11453561016243234</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="3" customFormat="1">
@@ -1125,82 +1167,92 @@
         <v>2007</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="11">
+      <c r="D10" s="34">
         <v>7</v>
       </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="E10" s="35">
+        <v>1</v>
+      </c>
+      <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="36">
         <v>1.18</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="36">
         <v>0.81</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="36">
         <v>1.73</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="37">
+        <f t="shared" si="0"/>
+        <v>0.2394835485214494</v>
+      </c>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1">
       <c r="A11" s="28">
         <v>2007</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="30"/>
-      <c r="D11" s="30">
+      <c r="D11" s="38">
         <v>7</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="38">
         <v>3</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="38">
         <v>2</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="39">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="39">
         <v>0.75</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="39">
         <v>1.66</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="37">
+        <f t="shared" si="0"/>
+        <v>0.23688046647230321</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="28">
         <v>2007</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="30"/>
-      <c r="D12" s="30">
+      <c r="D12" s="38">
         <v>7</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="38">
         <v>3</v>
       </c>
-      <c r="F12" s="30">
-        <v>1</v>
-      </c>
-      <c r="G12" s="29">
+      <c r="F12" s="38">
+        <v>1</v>
+      </c>
+      <c r="G12" s="39">
         <v>0.94</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="39">
         <v>0.45</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="39">
         <v>1.99</v>
+      </c>
+      <c r="J12" s="37">
+        <f t="shared" si="0"/>
+        <v>0.40087463556851316</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1208,25 +1260,29 @@
         <v>2008</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="11">
+        <v>22</v>
+      </c>
+      <c r="D13" s="34">
         <v>8</v>
       </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="E13" s="35">
+        <v>1</v>
+      </c>
+      <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="36">
         <v>1.08</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="36">
         <v>0.46</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="36">
         <v>2.5</v>
+      </c>
+      <c r="J13" s="37">
+        <f t="shared" si="0"/>
+        <v>0.53102873802582262</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1234,25 +1290,29 @@
         <v>2002</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="11">
+        <v>23</v>
+      </c>
+      <c r="D14" s="34">
         <v>9</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="35">
         <v>3</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="35">
         <v>2</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="36">
         <v>1.04</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="36">
         <v>0.87</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="36">
         <v>1.25</v>
+      </c>
+      <c r="J14" s="37">
+        <f t="shared" si="0"/>
+        <v>9.8917117867555193E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1260,25 +1320,29 @@
         <v>2003</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="11">
+        <v>24</v>
+      </c>
+      <c r="D15" s="34">
         <v>10</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="35">
         <v>3</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="35">
         <v>2</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="36">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="36">
         <v>0.8</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="36">
         <v>1.54</v>
+      </c>
+      <c r="J15" s="37">
+        <f t="shared" si="0"/>
+        <v>0.192628071636818</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1286,25 +1350,29 @@
         <v>2007</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="11">
+        <v>25</v>
+      </c>
+      <c r="D16" s="34">
         <v>11</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="35">
         <v>3</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="35">
         <v>2</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="36">
         <v>1.1399999999999999</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="36">
         <v>0.83</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="36">
         <v>1.56</v>
+      </c>
+      <c r="J16" s="37">
+        <f t="shared" si="0"/>
+        <v>0.19002498958767183</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1">
@@ -1312,50 +1380,57 @@
         <v>2007</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="33"/>
-      <c r="D17" s="34">
+      <c r="D17" s="40">
         <v>12</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="41">
         <v>3</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="41">
         <v>2</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="42">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="42">
         <v>0.75</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="42">
         <v>1.66</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="J17" s="37">
+        <f t="shared" si="0"/>
+        <v>0.23688046647230321</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="33"/>
-      <c r="D18" s="34">
+      <c r="D18" s="40">
         <v>12</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="41">
         <v>3</v>
       </c>
-      <c r="F18" s="33">
-        <v>1</v>
-      </c>
-      <c r="G18" s="32">
+      <c r="F18" s="41">
+        <v>1</v>
+      </c>
+      <c r="G18" s="42">
         <v>0.94</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="42">
         <v>0.45</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="42">
         <v>1.99</v>
+      </c>
+      <c r="J18" s="37">
+        <f t="shared" si="0"/>
+        <v>0.40087463556851316</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1">
@@ -1363,53 +1438,60 @@
         <v>2010</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="30">
-        <v>12</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="D19" s="38">
+        <v>13</v>
+      </c>
+      <c r="E19" s="35">
         <v>3</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="35">
         <v>2</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="36">
         <v>1.01</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="36">
         <v>0.87</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="36">
         <v>1.18</v>
       </c>
-      <c r="J19" s="12"/>
+      <c r="J19" s="37">
+        <f t="shared" si="0"/>
+        <v>8.0695543523531851E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="3">
         <v>2001</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="30">
-        <v>13</v>
-      </c>
-      <c r="E20" s="10">
+        <v>27</v>
+      </c>
+      <c r="D20" s="38">
+        <v>14</v>
+      </c>
+      <c r="E20" s="35">
         <v>3</v>
       </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-      <c r="G20" s="17">
+      <c r="F20" s="35">
+        <v>1</v>
+      </c>
+      <c r="G20" s="36">
         <v>0.98</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="36">
         <v>0.79</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="36">
         <v>1.21</v>
+      </c>
+      <c r="J20" s="37">
+        <f t="shared" si="0"/>
+        <v>0.10932944606413993</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1417,25 +1499,29 @@
         <v>2004</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="30">
-        <v>14</v>
-      </c>
-      <c r="E21" s="10">
+        <v>28</v>
+      </c>
+      <c r="D21" s="38">
+        <v>15</v>
+      </c>
+      <c r="E21" s="35">
         <v>3</v>
       </c>
-      <c r="F21" s="10">
-        <v>1</v>
-      </c>
-      <c r="G21" s="17">
+      <c r="F21" s="35">
+        <v>1</v>
+      </c>
+      <c r="G21" s="36">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="36">
         <v>0.76</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="36">
         <v>1.68</v>
+      </c>
+      <c r="J21" s="37">
+        <f t="shared" si="0"/>
+        <v>0.2394835485214494</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1443,26 +1529,30 @@
         <v>2003</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="30"/>
-      <c r="D22" s="30">
-        <v>15</v>
-      </c>
-      <c r="E22" s="30">
+      <c r="D22" s="38">
+        <v>16</v>
+      </c>
+      <c r="E22" s="38">
         <v>4</v>
       </c>
-      <c r="F22" s="30">
-        <v>1</v>
-      </c>
-      <c r="G22" s="35">
+      <c r="F22" s="38">
+        <v>1</v>
+      </c>
+      <c r="G22" s="43">
         <v>0.85</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="43">
         <v>0.71</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="43">
         <v>1.01</v>
+      </c>
+      <c r="J22" s="37">
+        <f t="shared" si="0"/>
+        <v>7.8092461474385685E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1470,26 +1560,30 @@
         <v>2005</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="30"/>
-      <c r="D23" s="30">
-        <v>16</v>
-      </c>
-      <c r="E23" s="30">
+      <c r="D23" s="38">
+        <v>17</v>
+      </c>
+      <c r="E23" s="38">
         <v>4</v>
       </c>
-      <c r="F23" s="30">
-        <v>1</v>
-      </c>
-      <c r="G23" s="35">
+      <c r="F23" s="38">
+        <v>1</v>
+      </c>
+      <c r="G23" s="43">
         <v>0.89</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="43">
         <v>0.66</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="43">
         <v>1.2</v>
+      </c>
+      <c r="J23" s="37">
+        <f t="shared" si="0"/>
+        <v>0.14056643065389421</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1497,26 +1591,30 @@
         <v>2007</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="30"/>
-      <c r="D24" s="30">
-        <v>17</v>
-      </c>
-      <c r="E24" s="30">
+      <c r="D24" s="38">
+        <v>18</v>
+      </c>
+      <c r="E24" s="38">
         <v>4</v>
       </c>
-      <c r="F24" s="30">
-        <v>1</v>
-      </c>
-      <c r="G24" s="35">
+      <c r="F24" s="38">
+        <v>1</v>
+      </c>
+      <c r="G24" s="43">
         <v>0.99</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="43">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24" s="43">
         <v>1.69</v>
+      </c>
+      <c r="J24" s="37">
+        <f t="shared" si="0"/>
+        <v>0.28894210745522697</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1524,26 +1622,30 @@
         <v>2009</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" s="30"/>
-      <c r="D25" s="30">
-        <v>18</v>
-      </c>
-      <c r="E25" s="30">
+      <c r="D25" s="44">
+        <v>19</v>
+      </c>
+      <c r="E25" s="44">
         <v>4</v>
       </c>
-      <c r="F25" s="30">
-        <v>1</v>
-      </c>
-      <c r="G25" s="35">
+      <c r="F25" s="44">
+        <v>1</v>
+      </c>
+      <c r="G25" s="45">
         <v>0.93</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="45">
         <v>0.73</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="45">
         <v>1.18</v>
+      </c>
+      <c r="J25" s="46">
+        <f t="shared" si="0"/>
+        <v>0.11713869221157851</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1">
@@ -1698,12 +1800,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1715,12 +1817,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
